--- a/DOC-20240911-WA0009.xlsx
+++ b/DOC-20240911-WA0009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RHEP local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REYZAGUIRRE\GitHubRepos\arbol_familiar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813F342-1E62-44D2-A333-2344A76B73ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49BD23-D9BD-4868-A745-E259AE7A4A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53880" yWindow="405" windowWidth="25440" windowHeight="15990" tabRatio="686" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="405" windowWidth="25440" windowHeight="15990" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARBOL" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -947,6 +947,12 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1160,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1178,7 +1184,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1191,9 +1196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,35 +1280,11 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1332,6 +1310,37 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11228,1972 +11237,1972 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ79"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="40" style="38" customWidth="1"/>
-    <col min="12" max="12" width="4" style="38" customWidth="1"/>
-    <col min="13" max="13" width="40.44140625" style="38" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="39.44140625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" style="38" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" style="38" customWidth="1"/>
-    <col min="18" max="1024" width="11.44140625" style="38"/>
-    <col min="1025" max="16384" width="11.44140625" style="39"/>
+    <col min="1" max="1" width="40.5546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="40" style="36" customWidth="1"/>
+    <col min="12" max="12" width="4" style="36" customWidth="1"/>
+    <col min="13" max="13" width="40.44140625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15" max="15" width="39.44140625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" style="36" customWidth="1"/>
+    <col min="18" max="1024" width="11.44140625" style="36"/>
+    <col min="1025" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="E1" s="36"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="34"/>
+      <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="23" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="23" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="23" t="s">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="45" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="45" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="45" t="s">
+      <c r="L7" s="41"/>
+      <c r="M7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="45" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="45" t="s">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="48" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="50" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="51" t="s">
+      <c r="J10" s="41"/>
+      <c r="K10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="50"/>
+      <c r="M10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="53" t="s">
+      <c r="N10" s="38"/>
+      <c r="O10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="51" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="56" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="57" t="s">
+      <c r="N11" s="38"/>
+      <c r="O11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="58" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="56" t="s">
+      <c r="J12" s="41"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="59" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53" t="s">
+      <c r="L13" s="50"/>
+      <c r="M13" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="60" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="55" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="53" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="59" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="56" t="s">
+      <c r="L14" s="41"/>
+      <c r="M14" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="58" t="s">
+      <c r="N14" s="38"/>
+      <c r="O14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="56" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="59" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="35"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="59" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="53" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="50" t="s">
+      <c r="N16" s="38"/>
+      <c r="O16" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="55" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="56" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="40"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="82" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="59" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="62" t="s">
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="40"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="63" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="58" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="51" t="s">
+      <c r="J19" s="41"/>
+      <c r="K19" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="53" t="s">
+      <c r="L19" s="41"/>
+      <c r="M19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="55" t="s">
+      <c r="N19" s="38"/>
+      <c r="O19" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="64" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="59" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="80" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="65" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="49" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="51" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="56" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="53" t="s">
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="48" t="s">
+      <c r="N22" s="38"/>
+      <c r="O22" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="28" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="57" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="67" t="s">
+      <c r="N23" s="38"/>
+      <c r="O23" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="80" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="56" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="51" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="51" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="51" t="s">
+      <c r="J24" s="41"/>
+      <c r="K24" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="56" t="s">
+      <c r="L24" s="41"/>
+      <c r="M24" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="89" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="63" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="26" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="48" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="51" t="s">
+      <c r="H26" s="41"/>
+      <c r="I26" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="53" t="s">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="63" t="s">
+      <c r="N26" s="38"/>
+      <c r="O26" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="80" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="55" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="63" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="51" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="27" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="48" t="s">
+      <c r="F29" s="41"/>
+      <c r="G29" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="53" t="s">
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="N29" s="40"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="55" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="51" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="56" t="s">
+      <c r="L30" s="41"/>
+      <c r="M30" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N30" s="40"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="26" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="48" t="s">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="51" t="s">
+      <c r="J31" s="41"/>
+      <c r="K31" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="83" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="60" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="63" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="67" t="s">
+      <c r="H32" s="41"/>
+      <c r="I32" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="59" t="s">
+      <c r="J32" s="41"/>
+      <c r="K32" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53" t="s">
+      <c r="L32" s="50"/>
+      <c r="M32" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="N32" s="40"/>
-      <c r="O32" s="63" t="s">
+      <c r="N32" s="38"/>
+      <c r="O32" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="94" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="63" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="59" t="s">
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="56" t="s">
+      <c r="L33" s="41"/>
+      <c r="M33" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="N33" s="40"/>
-      <c r="O33" s="63" t="s">
+      <c r="N33" s="38"/>
+      <c r="O33" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="59" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="84" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="59" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="49" t="s">
+      <c r="L35" s="41"/>
+      <c r="M35" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="N35" s="40"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="N35" s="38"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="86" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="63" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="64" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="59" t="s">
+      <c r="J36" s="41"/>
+      <c r="K36" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="L36" s="43"/>
-      <c r="M36" s="60" t="s">
+      <c r="L36" s="41"/>
+      <c r="M36" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="48" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="63" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="63" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="59" t="s">
+      <c r="J37" s="41"/>
+      <c r="K37" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="93" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="55" t="s">
+      <c r="D38" s="41"/>
+      <c r="E38" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="63" t="s">
+      <c r="F38" s="41"/>
+      <c r="G38" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="63" t="s">
+      <c r="H38" s="41"/>
+      <c r="I38" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="53" t="s">
+      <c r="J38" s="41"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="51" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="L39" s="43"/>
-      <c r="M39" s="56" t="s">
+      <c r="L39" s="41"/>
+      <c r="M39" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="N39" s="40"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="N39" s="38"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="63" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="66" t="s">
+      <c r="F40" s="41"/>
+      <c r="G40" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="85" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="63" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="66" t="s">
+      <c r="F41" s="41"/>
+      <c r="G41" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="63" t="s">
+      <c r="D42" s="41"/>
+      <c r="E42" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="63" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="47" t="s">
+      <c r="F43" s="41"/>
+      <c r="G43" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="54" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="85" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="48" t="s">
+      <c r="D45" s="41"/>
+      <c r="E45" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
     </row>
     <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="85" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="55" t="s">
+      <c r="D46" s="41"/>
+      <c r="E46" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="47" t="s">
+      <c r="F46" s="41"/>
+      <c r="G46" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="85" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="54" t="s">
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="63" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="63" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="47" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="63" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="54" t="s">
+      <c r="F50" s="41"/>
+      <c r="G50" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="92" t="s">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="48" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="66" t="s">
+      <c r="F52" s="41"/>
+      <c r="G52" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="84" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="55" t="s">
+      <c r="D53" s="41"/>
+      <c r="E53" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="66" t="s">
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="63" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="65" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="92" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="63" t="s">
+      <c r="D56" s="41"/>
+      <c r="E56" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="65" t="s">
+      <c r="F56" s="41"/>
+      <c r="G56" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="65" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="48" t="s">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
     </row>
     <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="55" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="65" t="s">
+      <c r="F59" s="41"/>
+      <c r="G59" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
     </row>
     <row r="60" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="65" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="68" t="s">
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
     </row>
     <row r="61" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="63" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="65" t="s">
+      <c r="F61" s="41"/>
+      <c r="G61" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
     </row>
     <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="63" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
     </row>
     <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="47" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H64" s="43"/>
-      <c r="I64" s="47" t="s">
+      <c r="H64" s="41"/>
+      <c r="I64" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="47" t="s">
+      <c r="J64" s="41"/>
+      <c r="K64" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="69" t="s">
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="69"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
     </row>
     <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="54" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="43"/>
-      <c r="I65" s="54" t="s">
+      <c r="H65" s="41"/>
+      <c r="I65" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="54" t="s">
+      <c r="J65" s="41"/>
+      <c r="K65" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="70" t="s">
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
     </row>
     <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="71" t="s">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
+      <c r="P66" s="92"/>
+      <c r="Q66" s="92"/>
     </row>
     <row r="67" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="72" t="s">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="H67" s="43"/>
-      <c r="I67" s="65" t="s">
+      <c r="H67" s="41"/>
+      <c r="I67" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="66" t="s">
+      <c r="J67" s="41"/>
+      <c r="K67" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="73" t="s">
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="P67" s="73"/>
-      <c r="Q67" s="73"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
     </row>
     <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="52" t="s">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="H68" s="43"/>
-      <c r="I68" s="65" t="s">
+      <c r="H68" s="41"/>
+      <c r="I68" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="J68" s="43"/>
-      <c r="K68" s="66" t="s">
+      <c r="J68" s="41"/>
+      <c r="K68" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="74" t="s">
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
+      <c r="P68" s="86"/>
+      <c r="Q68" s="86"/>
     </row>
     <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="66" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="H69" s="43"/>
-      <c r="I69" s="65" t="s">
+      <c r="H69" s="41"/>
+      <c r="I69" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="66" t="s">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="H70" s="43"/>
-      <c r="I70" s="75" t="s">
+      <c r="H70" s="41"/>
+      <c r="I70" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="65" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
     </row>
     <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="76"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="87"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="77"/>
-      <c r="P74" s="77"/>
-      <c r="Q74" s="77"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="88"/>
     </row>
     <row r="75" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="77"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="88"/>
     </row>
     <row r="76" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="78"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="85"/>
     </row>
     <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="85"/>
+      <c r="P77" s="85"/>
+      <c r="Q77" s="85"/>
     </row>
     <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G78" s="40"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
+      <c r="G78" s="38"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G79" s="40"/>
-      <c r="I79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
+      <c r="G79" s="38"/>
+      <c r="I79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="O67:Q67"/>
     <mergeCell ref="O77:Q77"/>
     <mergeCell ref="O68:Q68"/>
     <mergeCell ref="O73:Q73"/>
     <mergeCell ref="O74:Q74"/>
     <mergeCell ref="O75:Q75"/>
     <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="O67:Q67"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="34" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13205,8 +13214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13229,13 +13238,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="77" t="s">
         <v>237</v>
       </c>
     </row>
@@ -13246,22 +13255,22 @@
       <c r="A7" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="29" t="s">
         <v>243</v>
       </c>
     </row>
@@ -13269,11 +13278,11 @@
       <c r="A8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>245</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="30" t="s">
         <v>68</v>
       </c>
       <c r="I8" s="7"/>
@@ -13284,10 +13293,10 @@
       <c r="A10" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="81" t="s">
         <v>190</v>
       </c>
     </row>
@@ -13295,7 +13304,7 @@
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="32" t="s">
         <v>248</v>
       </c>
       <c r="G11" s="11"/>
@@ -13303,7 +13312,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>195</v>
       </c>
     </row>
@@ -13311,7 +13320,7 @@
       <c r="A13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>158</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -13322,7 +13331,7 @@
       <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>161</v>
       </c>
       <c r="G14" s="11"/>
@@ -13330,7 +13339,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="81" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13338,7 +13347,7 @@
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>167</v>
       </c>
       <c r="G16" s="11"/>
@@ -13347,12 +13356,12 @@
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>174</v>
       </c>
     </row>
@@ -13372,7 +13381,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="81" t="s">
         <v>183</v>
       </c>
     </row>
@@ -13384,7 +13393,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="81" t="s">
         <v>185</v>
       </c>
     </row>
@@ -13528,7 +13537,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13543,13 +13552,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>253</v>
       </c>
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>254</v>
       </c>
       <c r="D2" s="11"/>
@@ -13557,7 +13566,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="27" t="s">
         <v>255</v>
       </c>
     </row>
@@ -13569,15 +13578,15 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>256</v>
       </c>
       <c r="D6" s="11"/>
@@ -13591,24 +13600,24 @@
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="95" t="s">
         <v>257</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13616,272 +13625,272 @@
       <c r="A10" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="31" t="s">
         <v>214</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="32" t="s">
         <v>218</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="31" t="s">
         <v>216</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="31" t="s">
         <v>223</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="10" t="s">
         <v>227</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
         <v>233</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="9" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -13921,27 +13930,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="16"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="16"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="16"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -13977,43 +13986,43 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>263</v>
       </c>
     </row>

--- a/DOC-20240911-WA0009.xlsx
+++ b/DOC-20240911-WA0009.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="274">
   <si>
     <t xml:space="preserve">JOSEF EYZAGUIRRE</t>
   </si>
@@ -36,6 +36,33 @@
   </si>
   <si>
     <t xml:space="preserve">FRANCISCO SOLANO EYZAGUIRRE TELLEZ Y MERCEDES BUTRON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 9</t>
   </si>
   <si>
     <t xml:space="preserve">JOSE DE LA RESURRECCIÓN EYAGUIRRE BUTRON(1856)</t>
@@ -828,7 +855,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -923,6 +950,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -987,7 +1022,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1045,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
         <bgColor rgb="FF66FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFCCFF33"/>
       </patternFill>
     </fill>
     <fill>
@@ -1154,400 +1195,428 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1604,7 +1673,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF66FF99"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1645,8 +1714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28076760" y="697680"/>
-          <a:ext cx="28594080" cy="64440"/>
+          <a:off x="28078200" y="697680"/>
+          <a:ext cx="28612080" cy="64440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1693,7 +1762,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14992200" y="228600"/>
+          <a:off x="14992560" y="228600"/>
           <a:ext cx="0" cy="171720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1741,7 +1810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15011280" y="590760"/>
+          <a:off x="15011640" y="590760"/>
           <a:ext cx="0" cy="133200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1933,7 +2002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12771000" y="742680"/>
+          <a:off x="12771360" y="742680"/>
           <a:ext cx="0" cy="228960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1981,7 +2050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16541640" y="742680"/>
+          <a:off x="16542360" y="742680"/>
           <a:ext cx="0" cy="228960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2029,7 +2098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19924920" y="742680"/>
+          <a:off x="19925280" y="742680"/>
           <a:ext cx="0" cy="228960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2077,7 +2146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23540760" y="742680"/>
+          <a:off x="23541120" y="742680"/>
           <a:ext cx="0" cy="228960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2125,7 +2194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26966880" y="742680"/>
+          <a:off x="26968320" y="742680"/>
           <a:ext cx="0" cy="228960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2173,7 +2242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29799000" y="762120"/>
+          <a:off x="29800440" y="762120"/>
           <a:ext cx="0" cy="218880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2269,7 +2338,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16541640" y="2018880"/>
+          <a:off x="16542360" y="2018880"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2317,7 +2386,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23540760" y="2018880"/>
+          <a:off x="23541120" y="2018880"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2365,7 +2434,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26966880" y="2018880"/>
+          <a:off x="26968320" y="2018880"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2461,7 +2530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16560720" y="2781360"/>
+          <a:off x="16561440" y="2781360"/>
           <a:ext cx="0" cy="171720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2509,7 +2578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23559840" y="2952720"/>
+          <a:off x="23560200" y="2952720"/>
           <a:ext cx="0" cy="171360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2557,7 +2626,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26985960" y="3143520"/>
+          <a:off x="26987400" y="3143520"/>
           <a:ext cx="0" cy="485640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2605,7 +2674,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26966880" y="4028760"/>
+          <a:off x="26968320" y="4028760"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2653,7 +2722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23540760" y="4010040"/>
+          <a:off x="23541120" y="4010040"/>
           <a:ext cx="0" cy="380880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2701,7 +2770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23578920" y="4962600"/>
+          <a:off x="23579280" y="4962600"/>
           <a:ext cx="0" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2749,7 +2818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23616720" y="6076800"/>
+          <a:off x="23617080" y="6076800"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2797,7 +2866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23578920" y="7200720"/>
+          <a:off x="23579280" y="7200720"/>
           <a:ext cx="0" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2845,7 +2914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23540760" y="8781840"/>
+          <a:off x="23541120" y="8781840"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2893,7 +2962,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23559840" y="7982280"/>
+          <a:off x="23560200" y="7982280"/>
           <a:ext cx="0" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2941,7 +3010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23597640" y="10000800"/>
+          <a:off x="23598000" y="10000800"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2989,7 +3058,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23597640" y="11181960"/>
+          <a:off x="23598000" y="11181960"/>
           <a:ext cx="0" cy="324000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3037,7 +3106,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16484400" y="5591520"/>
+          <a:off x="16485120" y="5591520"/>
           <a:ext cx="0" cy="438120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3085,7 +3154,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16484400" y="4391280"/>
+          <a:off x="16485120" y="4391280"/>
           <a:ext cx="0" cy="1028520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3133,7 +3202,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16560720" y="3161880"/>
+          <a:off x="16561440" y="3161880"/>
           <a:ext cx="0" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3517,7 +3586,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12790080" y="17259480"/>
+          <a:off x="12790440" y="17259480"/>
           <a:ext cx="0" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3565,7 +3634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16541640" y="17259480"/>
+          <a:off x="16542360" y="17259480"/>
           <a:ext cx="0" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3613,7 +3682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20020320" y="17259480"/>
+          <a:off x="20020680" y="17259480"/>
           <a:ext cx="0" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3661,7 +3730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15099120" y="2643120"/>
+          <a:off x="15099480" y="2643120"/>
           <a:ext cx="26640" cy="10073520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3709,7 +3778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12692880" y="13191120"/>
+          <a:off x="12693240" y="13191120"/>
           <a:ext cx="2520" cy="196200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3757,7 +3826,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12704760" y="13742640"/>
+          <a:off x="12705120" y="13742640"/>
           <a:ext cx="2520" cy="192600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3805,7 +3874,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12720960" y="12697920"/>
+          <a:off x="12721320" y="12697920"/>
           <a:ext cx="7200" cy="118080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3853,7 +3922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12738240" y="12697560"/>
+          <a:off x="12738600" y="12697560"/>
           <a:ext cx="2387520" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3901,7 +3970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14943960" y="2649600"/>
+          <a:off x="14944320" y="2649600"/>
           <a:ext cx="138240" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3949,7 +4018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12781800" y="16660440"/>
+          <a:off x="12782160" y="16660440"/>
           <a:ext cx="7273440" cy="17280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3997,7 +4066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12781440" y="16660080"/>
+          <a:off x="12781800" y="16660080"/>
           <a:ext cx="0" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4045,7 +4114,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16544880" y="16669080"/>
+          <a:off x="16545600" y="16669080"/>
           <a:ext cx="0" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4093,7 +4162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20037600" y="16669080"/>
+          <a:off x="20037960" y="16669080"/>
           <a:ext cx="0" cy="199080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4141,7 +4210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15025680" y="3629520"/>
+          <a:off x="15026040" y="3629520"/>
           <a:ext cx="34560" cy="13004640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4189,7 +4258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14943960" y="3610440"/>
+          <a:off x="14944320" y="3610440"/>
           <a:ext cx="77760" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4237,7 +4306,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28960920" y="2830320"/>
+          <a:off x="28962720" y="2830320"/>
           <a:ext cx="0" cy="3797640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4285,8 +4354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28865880" y="6618960"/>
-          <a:ext cx="141840" cy="0"/>
+          <a:off x="28867680" y="6618960"/>
+          <a:ext cx="141480" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4333,7 +4402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28879560" y="5270400"/>
+          <a:off x="28881360" y="5270400"/>
           <a:ext cx="81720" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4381,7 +4450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="28866240" y="2800080"/>
+          <a:off x="28868040" y="2800080"/>
           <a:ext cx="104760" cy="4320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4429,7 +4498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26947800" y="7012440"/>
+          <a:off x="26949240" y="7012440"/>
           <a:ext cx="0" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4477,7 +4546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="25562160" y="5984280"/>
+          <a:off x="25563240" y="5984280"/>
           <a:ext cx="23760" cy="2772000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4525,8 +4594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="25579080" y="6007680"/>
-          <a:ext cx="1368720" cy="5040"/>
+          <a:off x="25580160" y="6007680"/>
+          <a:ext cx="1369080" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4573,7 +4642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26935920" y="5603040"/>
+          <a:off x="26937360" y="5603040"/>
           <a:ext cx="0" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4621,8 +4690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25574040" y="8755920"/>
-          <a:ext cx="1350000" cy="0"/>
+          <a:off x="25575120" y="8755920"/>
+          <a:ext cx="1350360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4669,7 +4738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26912160" y="8744400"/>
+          <a:off x="26913600" y="8744400"/>
           <a:ext cx="0" cy="381240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4717,7 +4786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20036160" y="6784920"/>
+          <a:off x="20036520" y="6784920"/>
           <a:ext cx="2108880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4765,7 +4834,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20036160" y="6784920"/>
+          <a:off x="20036520" y="6784920"/>
           <a:ext cx="0" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4813,7 +4882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="21115440" y="11179080"/>
+          <a:off x="21115800" y="11179080"/>
           <a:ext cx="1053720" cy="860760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4861,7 +4930,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16465320" y="9619920"/>
+          <a:off x="16466040" y="9619920"/>
           <a:ext cx="0" cy="1123920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4909,7 +4978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16427160" y="7791840"/>
+          <a:off x="16427880" y="7791840"/>
           <a:ext cx="0" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4957,7 +5026,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16443720" y="7219800"/>
+          <a:off x="16444440" y="7219800"/>
           <a:ext cx="0" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5005,8 +5074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16416360" y="6841440"/>
-          <a:ext cx="2100600" cy="0"/>
+          <a:off x="16417080" y="6841440"/>
+          <a:ext cx="2099880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5053,7 +5122,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16416360" y="6841440"/>
+          <a:off x="16417080" y="6841440"/>
           <a:ext cx="0" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5149,8 +5218,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17872200" y="6514920"/>
-          <a:ext cx="661320" cy="0"/>
+          <a:off x="17872920" y="6514920"/>
+          <a:ext cx="660600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5245,8 +5314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16484400" y="8457840"/>
-          <a:ext cx="2100600" cy="0"/>
+          <a:off x="16485120" y="8457840"/>
+          <a:ext cx="2099880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5293,7 +5362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16470720" y="8458200"/>
+          <a:off x="16471440" y="8458200"/>
           <a:ext cx="0" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5341,8 +5410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17858880" y="3969000"/>
-          <a:ext cx="729000" cy="0"/>
+          <a:off x="17859600" y="3969000"/>
+          <a:ext cx="728280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5389,7 +5458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12708360" y="2966400"/>
+          <a:off x="12708720" y="2966400"/>
           <a:ext cx="0" cy="171720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5437,7 +5506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12695040" y="4023360"/>
+          <a:off x="12695400" y="4023360"/>
           <a:ext cx="0" cy="394560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5486,7 +5555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11208240" y="2190600"/>
-          <a:ext cx="1486800" cy="0"/>
+          <a:ext cx="1487160" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5581,7 +5650,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12695040" y="2217600"/>
+          <a:off x="12695400" y="2217600"/>
           <a:ext cx="0" cy="171720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5677,7 +5746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12695040" y="4975920"/>
+          <a:off x="12695400" y="4975920"/>
           <a:ext cx="0" cy="394560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6302,7 +6371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11192760" y="7338600"/>
-          <a:ext cx="1632960" cy="0"/>
+          <a:ext cx="1633320" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6349,7 +6418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12831120" y="7975080"/>
+          <a:off x="12831480" y="7975080"/>
           <a:ext cx="0" cy="197280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6397,7 +6466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12837960" y="7342200"/>
+          <a:off x="12838320" y="7342200"/>
           <a:ext cx="0" cy="80280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6494,7 +6563,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="11256120" y="10510920"/>
-          <a:ext cx="1594080" cy="10080"/>
+          <a:ext cx="1594440" cy="10080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6541,7 +6610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12881880" y="10517760"/>
+          <a:off x="12882240" y="10517760"/>
           <a:ext cx="0" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6590,7 +6659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11240280" y="8495280"/>
-          <a:ext cx="129240" cy="2160"/>
+          <a:ext cx="129600" cy="2160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6637,7 +6706,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14969520" y="7696440"/>
+          <a:off x="14969880" y="7696440"/>
           <a:ext cx="6840" cy="1292760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6685,7 +6754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12790440" y="8968320"/>
+          <a:off x="12790800" y="8968320"/>
           <a:ext cx="2192760" cy="13680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6733,7 +6802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12783600" y="8954640"/>
+          <a:off x="12783960" y="8954640"/>
           <a:ext cx="6840" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6781,7 +6850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14935320" y="7696080"/>
+          <a:off x="14935680" y="7696080"/>
           <a:ext cx="33840" cy="13680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6829,8 +6898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12642480" y="14420880"/>
-          <a:ext cx="2720520" cy="10440"/>
+          <a:off x="12642840" y="14420880"/>
+          <a:ext cx="2720880" cy="10440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6877,7 +6946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12631320" y="14410080"/>
+          <a:off x="12631680" y="14410080"/>
           <a:ext cx="12960" cy="95040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6925,8 +6994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14946120" y="13024080"/>
-          <a:ext cx="395640" cy="10440"/>
+          <a:off x="14946480" y="13024080"/>
+          <a:ext cx="396000" cy="10440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6973,7 +7042,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15341760" y="13044960"/>
+          <a:off x="15342480" y="13044960"/>
           <a:ext cx="10440" cy="1386360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7021,8 +7090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14946120" y="13595400"/>
-          <a:ext cx="681480" cy="0"/>
+          <a:off x="14946480" y="13595400"/>
+          <a:ext cx="681840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7069,7 +7138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15627600" y="13584960"/>
+          <a:off x="15628320" y="13584960"/>
           <a:ext cx="21240" cy="1714320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7117,8 +7186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14945760" y="15288840"/>
-          <a:ext cx="702720" cy="10440"/>
+          <a:off x="14946120" y="15288840"/>
+          <a:ext cx="703080" cy="10440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7165,8 +7234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14335200" y="14124240"/>
-          <a:ext cx="1588320" cy="10800"/>
+          <a:off x="14335560" y="14124240"/>
+          <a:ext cx="1588680" cy="10800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7213,7 +7282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15923880" y="14135400"/>
+          <a:off x="15924600" y="14135400"/>
           <a:ext cx="10440" cy="2000160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7261,8 +7330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14935680" y="16146000"/>
-          <a:ext cx="988200" cy="21240"/>
+          <a:off x="14936040" y="16146000"/>
+          <a:ext cx="988560" cy="21240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7406,7 +7475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11250720" y="12438000"/>
-          <a:ext cx="121680" cy="3600"/>
+          <a:ext cx="122040" cy="3600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8269,7 +8338,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371400" y="3645360"/>
+          <a:off x="3371040" y="3645360"/>
           <a:ext cx="15840" cy="6857640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8318,7 +8387,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1206360" y="10500480"/>
-          <a:ext cx="2149200" cy="2160"/>
+          <a:ext cx="2148840" cy="2160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8605,7 +8674,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3355560" y="11106360"/>
+          <a:off x="3355200" y="11106360"/>
           <a:ext cx="15840" cy="3219480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8654,7 +8723,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1079640" y="14325480"/>
-          <a:ext cx="2292120" cy="15840"/>
+          <a:ext cx="2291760" cy="15840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8749,7 +8818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3252600" y="11106360"/>
+          <a:off x="3252240" y="11106360"/>
           <a:ext cx="102960" cy="10440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8893,7 +8962,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3419280" y="9645480"/>
+          <a:off x="3418920" y="9645480"/>
           <a:ext cx="15840" cy="3362400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8941,8 +9010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3419280" y="12992040"/>
-          <a:ext cx="1402560" cy="0"/>
+          <a:off x="3418920" y="12992040"/>
+          <a:ext cx="1402920" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9037,8 +9106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3408840" y="9656280"/>
-          <a:ext cx="119880" cy="4680"/>
+          <a:off x="3408480" y="9656280"/>
+          <a:ext cx="120240" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9277,8 +9346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3387600" y="3637080"/>
-          <a:ext cx="143640" cy="12960"/>
+          <a:off x="3387240" y="3637080"/>
+          <a:ext cx="144000" cy="12960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9422,7 +9491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1134720" y="5176800"/>
-          <a:ext cx="2157480" cy="0"/>
+          <a:ext cx="2157120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9469,7 +9538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3292560" y="2656800"/>
+          <a:off x="3292200" y="2656800"/>
           <a:ext cx="10440" cy="2504520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9517,7 +9586,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3244680" y="2677680"/>
+          <a:off x="3244320" y="2677680"/>
           <a:ext cx="71280" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9661,7 +9730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3339720" y="2508120"/>
+          <a:off x="3339360" y="2508120"/>
           <a:ext cx="127080" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9710,7 +9779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2818800" y="2369160"/>
-          <a:ext cx="659880" cy="0"/>
+          <a:ext cx="659520" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9758,7 +9827,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1103400" y="2222280"/>
-          <a:ext cx="2228760" cy="7920"/>
+          <a:ext cx="2228400" cy="7920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9854,7 +9923,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1150920" y="8894880"/>
-          <a:ext cx="2180880" cy="10440"/>
+          <a:ext cx="2180520" cy="10440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9950,7 +10019,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2698920" y="4668480"/>
-          <a:ext cx="641160" cy="15840"/>
+          <a:ext cx="640800" cy="15840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10045,7 +10114,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3423600" y="3429000"/>
+          <a:off x="3423240" y="3429000"/>
           <a:ext cx="19800" cy="4251600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10094,7 +10163,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1262160" y="7680600"/>
-          <a:ext cx="2181240" cy="10440"/>
+          <a:ext cx="2180880" cy="10440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10190,7 +10259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2690640" y="3452400"/>
-          <a:ext cx="744480" cy="0"/>
+          <a:ext cx="744120" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10399,11 +10468,11 @@
   </sheetPr>
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.45"/>
@@ -10490,889 +10559,911 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="9"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11" t="s">
-        <v>10</v>
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="11" t="s">
-        <v>11</v>
+      <c r="O6" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="11" t="s">
-        <v>12</v>
+      <c r="Q6" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="17" t="s">
-        <v>18</v>
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="17" t="s">
-        <v>19</v>
+      <c r="O7" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="17" t="s">
-        <v>13</v>
+      <c r="Q7" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="13"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25" t="s">
-        <v>26</v>
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="25" t="s">
-        <v>27</v>
+      <c r="O10" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="30" t="s">
-        <v>33</v>
+      <c r="A11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="31" t="s">
-        <v>34</v>
+      <c r="O11" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="30" t="s">
-        <v>36</v>
+      <c r="O12" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25" t="s">
-        <v>42</v>
+      <c r="A13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="30" t="s">
-        <v>49</v>
+      <c r="A14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="N14" s="9"/>
-      <c r="O14" s="32" t="s">
-        <v>50</v>
+      <c r="O14" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="13"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="25" t="s">
-        <v>58</v>
+      <c r="A16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="N16" s="9"/>
-      <c r="O16" s="22" t="s">
-        <v>59</v>
+      <c r="O16" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="30" t="s">
-        <v>62</v>
+      <c r="A17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="N17" s="9"/>
-      <c r="O17" s="13"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="40" t="s">
-        <v>66</v>
+      <c r="O18" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="25" t="s">
-        <v>73</v>
+      <c r="A19" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="29" t="s">
-        <v>74</v>
+      <c r="O19" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="30"/>
+      <c r="A20" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="13"/>
+      <c r="O20" s="14"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="13"/>
+      <c r="O21" s="14"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="25" t="s">
-        <v>86</v>
+      <c r="A22" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="34" t="s">
-        <v>87</v>
+      <c r="O22" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="31" t="s">
-        <v>91</v>
+      <c r="A23" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="51" t="s">
-        <v>92</v>
+      <c r="O23" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="30" t="s">
-        <v>99</v>
+      <c r="A24" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="13"/>
+      <c r="O24" s="14"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="43" t="s">
-        <v>101</v>
+      <c r="O25" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="25" t="s">
-        <v>105</v>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="43" t="s">
-        <v>106</v>
+      <c r="O26" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="30"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="43" t="s">
-        <v>109</v>
+      <c r="O27" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="A28" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="13"/>
+      <c r="O28" s="14"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="25" t="s">
-        <v>116</v>
+      <c r="A29" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="N29" s="9"/>
-      <c r="O29" s="13"/>
+      <c r="O29" s="14"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="30" t="s">
-        <v>119</v>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="N30" s="9"/>
-      <c r="O30" s="13"/>
+      <c r="O30" s="14"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="13"/>
+      <c r="O31" s="14"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25" t="s">
-        <v>129</v>
+      <c r="A32" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="N32" s="9"/>
-      <c r="O32" s="43" t="s">
-        <v>130</v>
+      <c r="O32" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="30" t="s">
-        <v>135</v>
+      <c r="A33" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="N33" s="9"/>
-      <c r="O33" s="43" t="s">
-        <v>136</v>
+      <c r="O33" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="48" t="s">
-        <v>141</v>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="N35" s="9"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="53" t="s">
-        <v>147</v>
+      <c r="A36" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -11380,57 +11471,57 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="A37" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="25" t="s">
-        <v>157</v>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -11438,904 +11529,904 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="30" t="s">
-        <v>160</v>
+      <c r="A39" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="N39" s="9"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="A40" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
+      <c r="A42" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
+      <c r="A43" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="A45" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
+      <c r="A46" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
+      <c r="A48" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
+      <c r="A49" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
+      <c r="A52" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="A53" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
+      <c r="A54" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="60" t="s">
-        <v>210</v>
+      <c r="O60" s="62" t="s">
+        <v>219</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="60"/>
+      <c r="O61" s="62"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
+      <c r="O64" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
+      <c r="O65" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
+      <c r="O66" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="65"/>
     </row>
     <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
+      <c r="O67" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
+      <c r="O68" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="60"/>
+      <c r="O70" s="62"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="J71" s="18"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="68"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="69"/>
-      <c r="Q74" s="69"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="69"/>
-      <c r="P75" s="69"/>
-      <c r="Q75" s="69"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="70"/>
-      <c r="P76" s="70"/>
-      <c r="Q76" s="70"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="70"/>
-      <c r="P77" s="70"/>
-      <c r="Q77" s="70"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G78" s="9"/>
-      <c r="I78" s="13"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -12384,229 +12475,229 @@
   </sheetPr>
   <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="73" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="73" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="73" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="73" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="73" width="32.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="73" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="73" width="28.33"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="71"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
-        <v>236</v>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="72"/>
-      <c r="E4" s="74" t="s">
-        <v>237</v>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="75"/>
+      <c r="D5" s="78"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="M7" s="77" t="s">
-        <v>243</v>
+      <c r="A7" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="80" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="G8" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="M8" s="78"/>
+      <c r="A8" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="G8" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="M8" s="83"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>190</v>
+      <c r="A10" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="85"/>
+      <c r="A11" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="G12" s="81" t="s">
-        <v>195</v>
+      <c r="A12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="G12" s="85" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>198</v>
+      <c r="A13" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="85"/>
+      <c r="A14" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="G15" s="82" t="s">
-        <v>202</v>
+      <c r="A15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="G15" s="86" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="85"/>
+      <c r="A16" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="89"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>170</v>
+      <c r="A17" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="81" t="s">
-        <v>174</v>
+      <c r="C19" s="85" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>177</v>
+      <c r="A20" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="85"/>
+      <c r="A21" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="89"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="85"/>
-      <c r="C22" s="82" t="s">
-        <v>183</v>
+      <c r="A22" s="89"/>
+      <c r="C22" s="86" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="85"/>
+      <c r="A23" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="89"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="85"/>
-      <c r="C24" s="82" t="s">
-        <v>185</v>
+      <c r="A24" s="89"/>
+      <c r="C24" s="86" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="86" t="s">
-        <v>88</v>
+      <c r="A25" s="91" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="85"/>
+      <c r="A26" s="89"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="86" t="s">
-        <v>251</v>
+      <c r="A27" s="91" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="86" t="s">
-        <v>110</v>
+      <c r="A30" s="91" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="85"/>
+      <c r="A31" s="89"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="86" t="s">
-        <v>113</v>
+      <c r="A32" s="91" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="85"/>
+      <c r="A33" s="89"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="86" t="s">
-        <v>123</v>
+      <c r="A34" s="91" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="85"/>
+      <c r="A35" s="89"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="86" t="s">
-        <v>131</v>
+      <c r="A36" s="91" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -12633,75 +12724,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="34.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="41.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="36.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="73" width="25.56"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="87" t="s">
-        <v>252</v>
+      <c r="C3" s="92" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="88" t="s">
-        <v>253</v>
+      <c r="C4" s="93" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>115</v>
+      <c r="B7" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="90" t="s">
+      <c r="B8" s="94" t="s">
         <v>117</v>
       </c>
+      <c r="D8" s="94" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="85"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>144</v>
+      <c r="B11" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="85"/>
-      <c r="D12" s="85"/>
+      <c r="B12" s="89"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>150</v>
+      <c r="B13" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="85"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>163</v>
+      <c r="D15" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="86" t="s">
-        <v>166</v>
+      <c r="F16" s="95" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -12723,370 +12814,370 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="46.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="73" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="73" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="73" width="51.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="85"/>
+      <c r="C1" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="91" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" s="85"/>
+      <c r="C2" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="G3" s="91" t="s">
-        <v>256</v>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="G3" s="96" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="77" t="s">
-        <v>56</v>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="80" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="78" t="s">
-        <v>61</v>
+      <c r="A6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="83" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="93"/>
+      <c r="A7" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>70</v>
+      <c r="E8" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="94" t="s">
-        <v>76</v>
+      <c r="G9" s="99" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
+      <c r="A10" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="81" t="s">
+      <c r="A11" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="98"/>
+      <c r="G14" s="89"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="89"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="89"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="89"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="89"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="84" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="89"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="85"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="85"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="85"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="85"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="85"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="85"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="85"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
+      <c r="A28" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="85"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="85"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="85"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13112,112 +13203,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="41.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="31.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="73" width="41.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="73" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="73" width="35.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="73" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="73" width="41.33"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="95"/>
-      <c r="E4" s="96" t="s">
-        <v>260</v>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="95"/>
-      <c r="E5" s="97" t="s">
-        <v>125</v>
+      <c r="D5" s="102"/>
+      <c r="E5" s="104" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="95"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="95"/>
-      <c r="E7" s="71"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="95"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>206</v>
+      <c r="A10" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78"/>
-      <c r="C11" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>207</v>
+      <c r="A11" s="83"/>
+      <c r="C11" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="98" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="98" t="s">
-        <v>211</v>
+      <c r="C13" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="105" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="98" t="s">
-        <v>213</v>
+      <c r="C15" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="98" t="s">
-        <v>188</v>
+      <c r="C17" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="98" t="s">
-        <v>264</v>
+      <c r="C19" s="105" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
